--- a/1. Doble Rendija/Code/Ajustes/data_doble_laser.xlsx
+++ b/1. Doble Rendija/Code/Ajustes/data_doble_laser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_martinezc234_uniandes_edu_co/Documents/6to Semestre/Laboratorio Intermedio/Laboratorios/Semana 1- Doble Rendija/Datos Y Análisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\1. Doble Rendija\Code\Ajustes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_AD4D2F04E46CFB4ACB3E20CFFD17DF80683EDF22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEB6019-5C10-4060-937E-16BC10AC46C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDC700-B497-48A6-B0E2-1AC22006F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5158,10 +5158,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>análisis!$G$2:$G$310</c:f>
+              <c:f>análisis!$G$2:$G$295</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>-5.8599999999999998E-3</c:v>
                 </c:pt>
@@ -6043,61 +6043,16 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1.9999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>3.9999999999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>5.9999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>7.9999999999999993E-5</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>1.1999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>1.3999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>1.5999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>1.7999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>1.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2.1999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2.3999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2.5999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2.7999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>análisis!$H$2:$H$310</c:f>
+              <c:f>análisis!$H$2:$H$295</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>1.9300000000000001E-2</c:v>
                 </c:pt>
@@ -6979,51 +6934,6 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>1.2415</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1.2384999999999999</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>1.2155</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>1.2065000000000001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>1.1905000000000001</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>1.1735</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>1.1475</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>1.1194999999999999</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>1.0974999999999999</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>1.0655000000000001</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>1.0215000000000001</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0.99650000000000005</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0.96150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0.92749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0.89450000000000007</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0.86750000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8200,7 +8110,7 @@
   <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18235,543 +18145,138 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <f>análisis!C296</f>
-        <v>20</v>
-      </c>
-      <c r="B296" s="1">
-        <f>análisis!D296</f>
-        <v>1238.5</v>
-      </c>
-      <c r="C296" s="1">
-        <f>análisis!E296</f>
-        <v>5</v>
-      </c>
-      <c r="D296" s="1">
-        <f>análisis!F296</f>
-        <v>0.1</v>
-      </c>
-      <c r="E296" s="4">
-        <f>análisis!G296</f>
-        <v>1.9999999999999998E-5</v>
-      </c>
-      <c r="F296">
-        <f>análisis!H296</f>
-        <v>1.2384999999999999</v>
-      </c>
-      <c r="G296">
-        <f>análisis!I296</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H296">
-        <f>análisis!J296</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <f>análisis!C297</f>
-        <v>40</v>
-      </c>
-      <c r="B297" s="1">
-        <f>análisis!D297</f>
-        <v>1215.5</v>
-      </c>
-      <c r="C297" s="1">
-        <f>análisis!E297</f>
-        <v>5</v>
-      </c>
-      <c r="D297" s="1">
-        <f>análisis!F297</f>
-        <v>0.1</v>
-      </c>
-      <c r="E297" s="4">
-        <f>análisis!G297</f>
-        <v>3.9999999999999996E-5</v>
-      </c>
-      <c r="F297">
-        <f>análisis!H297</f>
-        <v>1.2155</v>
-      </c>
-      <c r="G297">
-        <f>análisis!I297</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H297">
-        <f>análisis!J297</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <f>análisis!C298</f>
-        <v>60</v>
-      </c>
-      <c r="B298" s="1">
-        <f>análisis!D298</f>
-        <v>1206.5</v>
-      </c>
-      <c r="C298" s="1">
-        <f>análisis!E298</f>
-        <v>5</v>
-      </c>
-      <c r="D298" s="1">
-        <f>análisis!F298</f>
-        <v>0.1</v>
-      </c>
-      <c r="E298" s="4">
-        <f>análisis!G298</f>
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="F298">
-        <f>análisis!H298</f>
-        <v>1.2065000000000001</v>
-      </c>
-      <c r="G298">
-        <f>análisis!I298</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H298">
-        <f>análisis!J298</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <f>análisis!C299</f>
-        <v>80</v>
-      </c>
-      <c r="B299" s="1">
-        <f>análisis!D299</f>
-        <v>1190.5</v>
-      </c>
-      <c r="C299" s="1">
-        <f>análisis!E299</f>
-        <v>5</v>
-      </c>
-      <c r="D299" s="1">
-        <f>análisis!F299</f>
-        <v>0.1</v>
-      </c>
-      <c r="E299" s="4">
-        <f>análisis!G299</f>
-        <v>7.9999999999999993E-5</v>
-      </c>
-      <c r="F299">
-        <f>análisis!H299</f>
-        <v>1.1905000000000001</v>
-      </c>
-      <c r="G299">
-        <f>análisis!I299</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H299">
-        <f>análisis!J299</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <f>análisis!C300</f>
-        <v>100</v>
-      </c>
-      <c r="B300" s="1">
-        <f>análisis!D300</f>
-        <v>1173.5</v>
-      </c>
-      <c r="C300" s="1">
-        <f>análisis!E300</f>
-        <v>5</v>
-      </c>
-      <c r="D300" s="1">
-        <f>análisis!F300</f>
-        <v>0.1</v>
-      </c>
-      <c r="E300" s="4">
-        <f>análisis!G300</f>
-        <v>9.9999999999999991E-5</v>
-      </c>
-      <c r="F300">
-        <f>análisis!H300</f>
-        <v>1.1735</v>
-      </c>
-      <c r="G300">
-        <f>análisis!I300</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H300">
-        <f>análisis!J300</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <f>análisis!C301</f>
-        <v>120</v>
-      </c>
-      <c r="B301" s="1">
-        <f>análisis!D301</f>
-        <v>1147.5</v>
-      </c>
-      <c r="C301" s="1">
-        <f>análisis!E301</f>
-        <v>5</v>
-      </c>
-      <c r="D301" s="1">
-        <f>análisis!F301</f>
-        <v>0.1</v>
-      </c>
-      <c r="E301" s="4">
-        <f>análisis!G301</f>
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="F301">
-        <f>análisis!H301</f>
-        <v>1.1475</v>
-      </c>
-      <c r="G301">
-        <f>análisis!I301</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H301">
-        <f>análisis!J301</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <f>análisis!C302</f>
-        <v>140</v>
-      </c>
-      <c r="B302" s="1">
-        <f>análisis!D302</f>
-        <v>1119.5</v>
-      </c>
-      <c r="C302" s="1">
-        <f>análisis!E302</f>
-        <v>5</v>
-      </c>
-      <c r="D302" s="1">
-        <f>análisis!F302</f>
-        <v>0.1</v>
-      </c>
-      <c r="E302" s="4">
-        <f>análisis!G302</f>
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="F302">
-        <f>análisis!H302</f>
-        <v>1.1194999999999999</v>
-      </c>
-      <c r="G302">
-        <f>análisis!I302</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H302">
-        <f>análisis!J302</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <f>análisis!C303</f>
-        <v>160</v>
-      </c>
-      <c r="B303" s="1">
-        <f>análisis!D303</f>
-        <v>1097.5</v>
-      </c>
-      <c r="C303" s="1">
-        <f>análisis!E303</f>
-        <v>5</v>
-      </c>
-      <c r="D303" s="1">
-        <f>análisis!F303</f>
-        <v>0.1</v>
-      </c>
-      <c r="E303" s="4">
-        <f>análisis!G303</f>
-        <v>1.5999999999999999E-4</v>
-      </c>
-      <c r="F303">
-        <f>análisis!H303</f>
-        <v>1.0974999999999999</v>
-      </c>
-      <c r="G303">
-        <f>análisis!I303</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H303">
-        <f>análisis!J303</f>
-        <v>1E-3</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <f>análisis!C304</f>
-        <v>180</v>
-      </c>
-      <c r="B304" s="1">
-        <f>análisis!D304</f>
-        <v>1065.5</v>
-      </c>
-      <c r="C304" s="1">
-        <f>análisis!E304</f>
-        <v>5</v>
-      </c>
-      <c r="D304" s="1">
-        <f>análisis!F304</f>
-        <v>0.1</v>
-      </c>
-      <c r="E304" s="4">
-        <f>análisis!G304</f>
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="F304">
-        <f>análisis!H304</f>
-        <v>1.0655000000000001</v>
-      </c>
-      <c r="G304">
-        <f>análisis!I304</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H304">
-        <f>análisis!J304</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <f>análisis!C305</f>
-        <v>200</v>
-      </c>
-      <c r="B305" s="1">
-        <f>análisis!D305</f>
-        <v>1021.5</v>
-      </c>
-      <c r="C305" s="1">
-        <f>análisis!E305</f>
-        <v>5</v>
-      </c>
-      <c r="D305" s="1">
-        <f>análisis!F305</f>
-        <v>0.1</v>
-      </c>
-      <c r="E305" s="4">
-        <f>análisis!G305</f>
-        <v>1.9999999999999998E-4</v>
-      </c>
-      <c r="F305">
-        <f>análisis!H305</f>
-        <v>1.0215000000000001</v>
-      </c>
-      <c r="G305">
-        <f>análisis!I305</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H305">
-        <f>análisis!J305</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <f>análisis!C306</f>
-        <v>220</v>
-      </c>
-      <c r="B306" s="1">
-        <f>análisis!D306</f>
-        <v>996.5</v>
-      </c>
-      <c r="C306" s="1">
-        <f>análisis!E306</f>
-        <v>5</v>
-      </c>
-      <c r="D306" s="1">
-        <f>análisis!F306</f>
-        <v>0.1</v>
-      </c>
-      <c r="E306" s="4">
-        <f>análisis!G306</f>
-        <v>2.1999999999999998E-4</v>
-      </c>
-      <c r="F306">
-        <f>análisis!H306</f>
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="G306">
-        <f>análisis!I306</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H306">
-        <f>análisis!J306</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
-        <f>análisis!C307</f>
-        <v>240</v>
-      </c>
-      <c r="B307" s="1">
-        <f>análisis!D307</f>
-        <v>961.5</v>
-      </c>
-      <c r="C307" s="1">
-        <f>análisis!E307</f>
-        <v>5</v>
-      </c>
-      <c r="D307" s="1">
-        <f>análisis!F307</f>
-        <v>0.1</v>
-      </c>
-      <c r="E307" s="4">
-        <f>análisis!G307</f>
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="F307">
-        <f>análisis!H307</f>
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="G307">
-        <f>análisis!I307</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H307">
-        <f>análisis!J307</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A308" s="1">
-        <f>análisis!C308</f>
-        <v>260</v>
-      </c>
-      <c r="B308" s="1">
-        <f>análisis!D308</f>
-        <v>927.5</v>
-      </c>
-      <c r="C308" s="1">
-        <f>análisis!E308</f>
-        <v>5</v>
-      </c>
-      <c r="D308" s="1">
-        <f>análisis!F308</f>
-        <v>0.1</v>
-      </c>
-      <c r="E308" s="4">
-        <f>análisis!G308</f>
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="F308">
-        <f>análisis!H308</f>
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="G308">
-        <f>análisis!I308</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H308">
-        <f>análisis!J308</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
-        <f>análisis!C309</f>
-        <v>280</v>
-      </c>
-      <c r="B309" s="1">
-        <f>análisis!D309</f>
-        <v>894.5</v>
-      </c>
-      <c r="C309" s="1">
-        <f>análisis!E309</f>
-        <v>5</v>
-      </c>
-      <c r="D309" s="1">
-        <f>análisis!F309</f>
-        <v>0.1</v>
-      </c>
-      <c r="E309" s="4">
-        <f>análisis!G309</f>
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="F309">
-        <f>análisis!H309</f>
-        <v>0.89450000000000007</v>
-      </c>
-      <c r="G309">
-        <f>análisis!I309</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H309">
-        <f>análisis!J309</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
-        <f>análisis!C310</f>
-        <v>300</v>
-      </c>
-      <c r="B310" s="1">
-        <f>análisis!D310</f>
-        <v>867.5</v>
-      </c>
-      <c r="C310" s="1">
-        <f>análisis!E310</f>
-        <v>5</v>
-      </c>
-      <c r="D310" s="1">
-        <f>análisis!F310</f>
-        <v>0.1</v>
-      </c>
-      <c r="E310" s="4">
-        <f>análisis!G310</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F310">
-        <f>análisis!H310</f>
-        <v>0.86750000000000005</v>
-      </c>
-      <c r="G310">
-        <f>análisis!I310</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H310">
-        <f>análisis!J310</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
@@ -19029,7 +18534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C289" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F402"/>
     </sheetView>
   </sheetViews>
